--- a/Document/document_test.xlsx
+++ b/Document/document_test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="89">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -217,12 +217,12 @@
     <t>Return Materials (Return On Time)</t>
   </si>
   <si>
-    <t>The Librarian logs into the system.
-The Librarian selects Circulation – Check-in (Return Materials).
-The Librarian scans or enters the ISBN of the returned book.
-The system locates the active Loan Record.
-The system verifies that the book is not overdue.
-The Librarian confirms the return.</t>
+    <t>1. The Librarian logs into the system.
+2. The Librarian selects Circulation – Check-in (Return Materials).
+3. The Librarian scans or enters the ISBN of the returned book.
+4. The system locates the active Loan Record.
+5. The system verifies that the book is not overdue.
+6. The Librarian confirms the return.</t>
   </si>
   <si>
     <t>ISBN = "978-1", Username="user1"</t>
@@ -236,30 +236,55 @@
     <t>CT11</t>
   </si>
   <si>
-    <t>Return Materials (Late)</t>
+    <t>Return Materials (Late &gt; 3 Days)</t>
   </si>
   <si>
-    <t>The Librarian logs into the system.
-The Librarian selects Circulation – Check-in (Return Materials).
-The Librarian scans or enters the ISBN of the returned book.
-The system locates the active Loan Record.
-The system verifies that the book is overdue.
-The Librarian confirms the return.</t>
+    <t>1. The Librarian logs into the system.
+2. The Librarian selects Circulation – Check-in (Return Materials).
+3. The Librarian scans or enters the ISBN of an overdue book.
+4. The system calculates the number of late days (&gt; 3 days).
+5. The system issues a Warning to the Patron.
+6. The Librarian confirms the return.</t>
+  </si>
+  <si>
+    <t>The system displays a warning message for overdue return.
+The Loan Record is closed and marked as Completed.
+The book quantity is restored in inventory.</t>
   </si>
   <si>
     <t>CT12</t>
   </si>
   <si>
+    <t>Return Materials (Late &gt; 7 Days)</t>
+  </si>
+  <si>
+    <t>1. The Librarian logs into the system.
+2. The Librarian selects Circulation – Check-in (Return Materials).
+3. The Librarian scans or enters the ISBN of an overdue book.
+4. The system calculates the number of late days (&gt; 7 days).
+5. The system calculates the fine amount.
+6. The Librarian confirms that the fine has been paid.
+7. The Librarian confirms the return.</t>
+  </si>
+  <si>
+    <t>The fine amount is displayed and recorded.
+The Loan Record status is updated to Completed.
+The book quantity is increased by 1 after confirmation.</t>
+  </si>
+  <si>
+    <t>CT13</t>
+  </si>
+  <si>
     <t>Manage Books</t>
   </si>
   <si>
-    <t>The Librarian logs into the system.
-The Librarian selects Catalog Management.
-The system displays the list of books in the catalog.
-The Librarian selects Add Book (or Update Book).
-The Librarian enters valid book information.
-The Librarian confirms the operation.
-The system validates and saves the changes.</t>
+    <t>1. The Librarian logs into the system.
+2. The Librarian selects Catalog Management.
+3. The system displays the list of books in the catalog.
+4. The Librarian selects Add Book (or Update Book).
+5. The Librarian enters valid book information.
+6. The Librarian confirms the operation.
+7. The system validates and saves the changes.</t>
   </si>
   <si>
     <t>ISBN = "978-3"
@@ -274,18 +299,18 @@
 The catalog is updated and the new book appears in the book list.</t>
   </si>
   <si>
-    <t>CT13</t>
+    <t>CT14</t>
   </si>
   <si>
     <t>Manage Patrons (Block User)</t>
   </si>
   <si>
-    <t>The Librarian logs into the system.
-The Librarian selects User Management.
-The system displays the list of user accounts.
-The Librarian selects a Patron account.
-The Librarian chooses Block User.
-The system updates the user status.</t>
+    <t>1. The Librarian logs into the system.
+2. The Librarian selects User Management.
+3. The system displays the list of user accounts.
+4. The Librarian selects a Patron account.
+5. The Librarian chooses Block User.
+6. The system updates the user status.</t>
   </si>
   <si>
     <t>Patron Username = "user1"</t>
@@ -296,18 +321,18 @@
 The blocked user cannot perform borrowing actions.</t>
   </si>
   <si>
-    <t>CT14</t>
+    <t>CT15</t>
   </si>
   <si>
     <t>Manage Patrons (Unblock User)</t>
   </si>
   <si>
-    <t>The Librarian logs into the system.
-The Librarian selects User Management.
-The system displays the list of user accounts.
-The Librarian selects a blocked Patron account.
-The Librarian chooses Unblock User.
-The system updates the user status.</t>
+    <t>1. The Librarian logs into the system.
+2. The Librarian selects User Management.
+3. The system displays the list of user accounts.
+4. The Librarian selects a blocked Patron account.
+5. The Librarian chooses Unblock User.
+6. The system updates the user status.</t>
   </si>
   <si>
     <t>The Patron account is successfully unblocked.
@@ -315,18 +340,18 @@
 The user can access normal system functions again.</t>
   </si>
   <si>
-    <t>CT15</t>
+    <t>CT16</t>
   </si>
   <si>
     <t>View Transaction History</t>
   </si>
   <si>
-    <t>The Patron logs into the system.
-The Patron selects Transaction History from the menu.
-The system retrieves the Patron’s loan records.
-The system displays the list of transactions sorted by date (newest first).
-The Patron selects View Details for a transaction.
-The system displays detailed transaction information.</t>
+    <t>1. The Patron logs into the system.
+2. The Patron selects Transaction History from the menu.
+3. The system retrieves the Patron’s loan records.
+4. The system displays the list of transactions sorted by date (newest first).
+5. The Patron selects View Details for a transaction.
+6. The system displays detailed transaction information.</t>
   </si>
   <si>
     <t>Input:"number valid"</t>
@@ -336,18 +361,18 @@
 Transaction details include list of books, borrow date, due date, return date, and loan status (Active/Returned/Overdue).</t>
   </si>
   <si>
-    <t>CT16</t>
+    <t>CT17</t>
   </si>
   <si>
     <t>Cart Management</t>
   </si>
   <si>
-    <t>The Patron logs into the system.
-The Patron selects My Book Bag from the menu.
-The system displays the list of selected books in the Book Bag.
-The Patron selects Remove for a book in the bag.
-The system removes the book and updates the item count.
-The Patron selects Request Loan (Checkout).</t>
+    <t>1. The Patron logs into the system.
+2. The Patron selects My Book Bag from the menu.
+3. The system displays the list of selected books in the Book Bag.
+4. The Patron selects Remove for a book in the bag.
+5. The system removes the book and updates the item count.
+6. The Patron selects Request Loan (Checkout).</t>
   </si>
   <si>
     <t>Input:"C"</t>
@@ -357,18 +382,18 @@
 No checkout or loan request action is allowed.</t>
   </si>
   <si>
-    <t>CT17</t>
+    <t>CT18</t>
   </si>
   <si>
     <t>Update Profile</t>
   </si>
   <si>
-    <t>The Patron logs into the system.
-The Patron selects My Profile from the menu.
-The system displays current personal information.
-The Patron updates allowed fields (Phone, Address).
-The Patron selects Update.
-The system validates and saves the changes.</t>
+    <t>1. The Patron logs into the system.
+2. The Patron selects My Profile from the menu.
+3. The system displays current personal information.
+4.The Patron updates allowed fields (Phone, Address).
+5. The Patron selects Update.
+6. The system validates and saves the changes.</t>
   </si>
   <si>
     <t>Patron Username = "user1"
@@ -1110,7 +1135,7 @@
         <v>50</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1136,16 +1161,16 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>59</v>
@@ -1221,10 +1246,10 @@
         <v>67</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1250,16 +1275,16 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>73</v>
@@ -1363,11 +1388,21 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="A19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1391,7 +1426,7 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="2"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -28802,6 +28837,34 @@
       <c r="Y998" s="2"/>
       <c r="Z998" s="2"/>
     </row>
+    <row r="999">
+      <c r="A999" s="2"/>
+      <c r="B999" s="2"/>
+      <c r="C999" s="2"/>
+      <c r="D999" s="2"/>
+      <c r="E999" s="2"/>
+      <c r="F999" s="2"/>
+      <c r="G999" s="2"/>
+      <c r="H999" s="2"/>
+      <c r="I999" s="2"/>
+      <c r="J999" s="2"/>
+      <c r="K999" s="2"/>
+      <c r="L999" s="2"/>
+      <c r="M999" s="2"/>
+      <c r="N999" s="2"/>
+      <c r="O999" s="2"/>
+      <c r="P999" s="2"/>
+      <c r="Q999" s="2"/>
+      <c r="R999" s="2"/>
+      <c r="S999" s="2"/>
+      <c r="T999" s="2"/>
+      <c r="U999" s="2"/>
+      <c r="V999" s="2"/>
+      <c r="W999" s="2"/>
+      <c r="X999" s="2"/>
+      <c r="Y999" s="2"/>
+      <c r="Z999" s="2"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
